--- a/aiurt-module-system/src/main/resources/templates/inspectionCodeContent.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/inspectionCodeContent.xlsx
@@ -37,7 +37,7 @@
     <t>*检修项编号</t>
   </si>
   <si>
-    <t>排序编号</t>
+    <t>*排序编号</t>
   </si>
   <si>
     <t>*是否是检查项</t>
@@ -750,7 +750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,6 +772,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1123,7 +1126,7 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
@@ -1141,7 +1144,7 @@
     <col min="10" max="10" width="21.2222222222222" customWidth="1"/>
     <col min="11" max="11" width="14.4444444444444" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="15.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="15.6666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" spans="1:13">
@@ -1159,7 +1162,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -1191,7 +1194,7 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1215,7 +1218,7 @@
       <c r="L3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1256,7 +1259,7 @@
       <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
